--- a/Excel Projects/Home Luxury Kitchen Dashboard.xlsx
+++ b/Excel Projects/Home Luxury Kitchen Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoniofernandochristophorus/Documents/Personal Project/Data Analyst Portfolio/Excel Projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6E6DDA-6A56-174C-90BB-CE431B9A8129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2A4359-D7D2-7544-BF93-78B8002D2FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{BFB09E3C-4C2C-4934-A4A2-0A08E30BDD03}"/>
   </bookViews>
@@ -18,7 +18,16 @@
     <sheet name="Dashboard" sheetId="3" r:id="rId3"/>
     <sheet name="Analysis" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Analysis!$B$19:$C$24</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Analysis!$G$5:$G$14</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Analysis!$H$4</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Analysis!$H$5:$H$14</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">Analysis!$G$5:$G$14</definedName>
+    <definedName name="_xlchart.v2.4" hidden="1">Analysis!$H$4</definedName>
+    <definedName name="_xlchart.v2.5" hidden="1">Analysis!$H$5:$H$14</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,8 +35,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8748" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8782" uniqueCount="73">
   <si>
     <t>Year</t>
   </si>
@@ -237,12 +249,34 @@
   <si>
     <t>texas</t>
   </si>
+  <si>
+    <t>Product Filter</t>
+  </si>
+  <si>
+    <t>Selection</t>
+  </si>
+  <si>
+    <t>Year Filter</t>
+  </si>
+  <si>
+    <t>Selected</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Highlight</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="[$$-C09]#,##0;\-[$$-C09]#,##0"/>
+    <numFmt numFmtId="165" formatCode="[$$-C09]#,##0"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,8 +292,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -269,6 +327,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,11 +390,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,6 +420,936 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Analysis!$L$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Revenue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Analysis!$K$5:$K$14</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Teapot </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Blender </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> Kettle </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Egg slicer</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Microwave oven </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Dishwasher </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Breadbox </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Toaster </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Mixing bowl</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Frying pan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Analysis!$L$5:$L$14</c:f>
+              <c:numCache>
+                <c:formatCode>[$$-C09]#,##0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7684918</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6924787</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6587349</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6037379</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5189088</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5049479</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4609952</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3355051</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2898819</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2763987</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4E12-0047-93C5-2780D48E4AD1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Analysis!$M$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Highlight</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Analysis!$K$5:$K$14</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Teapot </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Blender </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> Kettle </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Egg slicer</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Microwave oven </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Dishwasher </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Breadbox </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Toaster </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Mixing bowl</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Frying pan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Analysis!$M$5:$M$14</c:f>
+              <c:numCache>
+                <c:formatCode>[$$-C09]#,##0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5049479</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4E12-0047-93C5-2780D48E4AD1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1140227007"/>
+        <c:axId val="1144065967"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1140227007"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1144065967"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1144065967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="[$$-C09]#,##0,&quot;K&quot;" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1140227007"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -582,6 +1592,49 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F116E37-6B70-2041-9857-E05297CE2770}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -886,8 +1939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C60077A-A270-4824-AE6E-D66251B707C3}">
   <dimension ref="A1:F2764"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -59197,7 +60250,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -59209,12 +60262,394 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137FD70B-7B8E-4748-8700-12AC1520916B}">
-  <dimension ref="A1"/>
+  <dimension ref="B3:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" customWidth="1"/>
+    <col min="11" max="11" width="13.5" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" customWidth="1"/>
+    <col min="13" max="13" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:17" ht="29" x14ac:dyDescent="0.35">
+      <c r="B3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="G3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="2:17" ht="24" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" ht="29" x14ac:dyDescent="0.35">
+      <c r="B5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="6"/>
+      <c r="G5" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="12">
+        <f>SUMIFS(Data!E:E,Data!A:A,$B$21,Data!B:B,G5)</f>
+        <v>2763987</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="str">
+        <f>INDEX($G$5:$G$14,MATCH(L5,$H$5:$H$14,0))</f>
+        <v>Teapot </v>
+      </c>
+      <c r="L5" s="13">
+        <f>LARGE($H$5:$H$14,J5)</f>
+        <v>7684918</v>
+      </c>
+      <c r="M5" s="13">
+        <f>IF($C$5=K5,L5,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" ht="24" x14ac:dyDescent="0.3">
+      <c r="B6" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="G6" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="12">
+        <f>SUMIFS(Data!E:E,Data!A:A,$B$21,Data!B:B,G6)</f>
+        <v>2898819</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" ref="K6:K14" si="0">INDEX($G$5:$G$14,MATCH(L6,$H$5:$H$14,0))</f>
+        <v>Blender </v>
+      </c>
+      <c r="L6" s="13">
+        <f t="shared" ref="L6:L14" si="1">LARGE($H$5:$H$14,J6)</f>
+        <v>6924787</v>
+      </c>
+      <c r="M6" s="13">
+        <f t="shared" ref="M6:M14" si="2">IF($C$5=K6,L6,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="B7" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="G7" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="12">
+        <f>SUMIFS(Data!E:E,Data!A:A,$B$21,Data!B:B,G7)</f>
+        <v>3355051</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="0"/>
+        <v> Kettle </v>
+      </c>
+      <c r="L7" s="13">
+        <f t="shared" si="1"/>
+        <v>6587349</v>
+      </c>
+      <c r="M7" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="B8" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="12">
+        <f>SUMIFS(Data!E:E,Data!A:A,$B$21,Data!B:B,G8)</f>
+        <v>4609952</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="0"/>
+        <v>Egg slicer</v>
+      </c>
+      <c r="L8" s="13">
+        <f t="shared" si="1"/>
+        <v>6037379</v>
+      </c>
+      <c r="M8" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="B9" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="12">
+        <f>SUMIFS(Data!E:E,Data!A:A,$B$21,Data!B:B,G9)</f>
+        <v>5049479</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="0"/>
+        <v>Microwave oven </v>
+      </c>
+      <c r="L9" s="13">
+        <f t="shared" si="1"/>
+        <v>5189088</v>
+      </c>
+      <c r="M9" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="B10" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="12">
+        <f>SUMIFS(Data!E:E,Data!A:A,$B$21,Data!B:B,G10)</f>
+        <v>5189088</v>
+      </c>
+      <c r="J10">
+        <v>6</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="0"/>
+        <v>Dishwasher </v>
+      </c>
+      <c r="L10" s="13">
+        <f t="shared" si="1"/>
+        <v>5049479</v>
+      </c>
+      <c r="M10" s="13">
+        <f t="shared" si="2"/>
+        <v>5049479</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="B11" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="12">
+        <f>SUMIFS(Data!E:E,Data!A:A,$B$21,Data!B:B,G11)</f>
+        <v>6037379</v>
+      </c>
+      <c r="J11">
+        <v>7</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="0"/>
+        <v>Breadbox </v>
+      </c>
+      <c r="L11" s="13">
+        <f t="shared" si="1"/>
+        <v>4609952</v>
+      </c>
+      <c r="M11" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="B12" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="12">
+        <f>SUMIFS(Data!E:E,Data!A:A,$B$21,Data!B:B,G12)</f>
+        <v>6587349</v>
+      </c>
+      <c r="J12">
+        <v>8</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="0"/>
+        <v>Toaster </v>
+      </c>
+      <c r="L12" s="13">
+        <f t="shared" si="1"/>
+        <v>3355051</v>
+      </c>
+      <c r="M12" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="B13" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="12">
+        <f>SUMIFS(Data!E:E,Data!A:A,$B$21,Data!B:B,G13)</f>
+        <v>6924787</v>
+      </c>
+      <c r="J13">
+        <v>9</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="0"/>
+        <v>Mixing bowl</v>
+      </c>
+      <c r="L13" s="13">
+        <f t="shared" si="1"/>
+        <v>2898819</v>
+      </c>
+      <c r="M13" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="B14" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="12">
+        <f>SUMIFS(Data!E:E,Data!A:A,$B$21,Data!B:B,G14)</f>
+        <v>7684918</v>
+      </c>
+      <c r="J14">
+        <v>10</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="0"/>
+        <v>Frying pan</v>
+      </c>
+      <c r="L14" s="13">
+        <f t="shared" si="1"/>
+        <v>2763987</v>
+      </c>
+      <c r="M14" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="B19" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="2:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="B20" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="B21" s="8">
+        <v>2022</v>
+      </c>
+      <c r="C21">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="B22" s="11">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="B23" s="11">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="B24" s="11">
+        <v>2019</v>
+      </c>
+      <c r="C24" s="11"/>
+    </row>
+    <row r="25" spans="2:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="B25" s="11"/>
+    </row>
+    <row r="26" spans="2:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="B26" s="11"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21" xr:uid="{2EFCBE96-D4E7-C54A-99C7-B4F434B387ED}">
+      <formula1>$B$21:$B$24</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5" xr:uid="{C5A3BCDF-18FA-4147-9590-AC079240A1B1}">
+      <formula1>$B$5:$B$14</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>